--- a/mixs-templates/MimarksC_plus_combinations/MimarksCBuiltEnvironment.xlsx
+++ b/mixs-templates/MimarksC_plus_combinations/MimarksCBuiltEnvironment.xlsx
@@ -1419,7 +1419,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="83">
+  <dataValidations count="84">
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobe,anaerobe,facultative,microaerophilic,microanaerobe,obligate aerobe,obligate anaerobe"</formula1>
     </dataValidation>
@@ -1590,6 +1590,9 @@
     </dataValidation>
     <dataValidation sqref="FC2:FC1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"clear sky,cloudy,foggy,hail,rain,sleet,snow,sunny,windy"</formula1>
+    </dataValidation>
+    <dataValidation sqref="FG2:FG1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
     </dataValidation>
     <dataValidation sqref="FH2:FH1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Fall,Spring,Summer,Winter"</formula1>
